--- a/RMI/RMI/media/Reporte/Rodrigo_Jacome_FEBRERO.xlsx
+++ b/RMI/RMI/media/Reporte/Rodrigo_Jacome_FEBRERO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -249,12 +249,15 @@
   <si>
     <t>Reading Comprenhesion Exercises</t>
   </si>
+  <si>
+    <t>19:00  A  22:00 p.m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -478,6 +481,14 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1317,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1480,6 +1491,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1641,6 +1664,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1679,6 +1714,15 @@
     </xf>
     <xf numFmtId="20" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1746,38 +1790,14 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="40" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2208,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57:R61"/>
+    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2233,34 +2253,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2276,38 +2296,38 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="165" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="143" t="s">
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143" t="s">
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143" t="s">
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="143"/>
+      <c r="X3" s="154"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2"/>
@@ -2323,36 +2343,36 @@
       <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="148" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="144" t="s">
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="81" t="s">
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="82"/>
+      <c r="X4" s="86"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2"/>
@@ -2368,36 +2388,36 @@
       <c r="AK4" s="1"/>
     </row>
     <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
-      <c r="B5" s="108" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="143" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="147" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="88"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
@@ -2413,34 +2433,34 @@
       <c r="AK5" s="1"/>
     </row>
     <row r="6" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="148">
+      <c r="A6" s="100"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="159">
         <v>10546862</v>
       </c>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148">
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159">
         <v>3127695324</v>
       </c>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="86"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="90"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="2"/>
@@ -2456,30 +2476,30 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="93"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -2509,15 +2529,15 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -2534,32 +2554,32 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="96"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -2575,56 +2595,56 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="163" t="s">
+      <c r="O10" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="161" t="s">
+      <c r="P10" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="161" t="s">
+      <c r="Q10" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="97" t="s">
+      <c r="R10" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="152" t="s">
+      <c r="S10" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="153"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="164"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2640,13 +2660,13 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="46" t="s">
         <v>13</v>
       </c>
@@ -2668,16 +2688,16 @@
       <c r="N11" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="98"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="156"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="166"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="166"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="167"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2744,44 +2764,44 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="113">
         <v>10</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="70">
         <v>30</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="66" t="s">
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69">
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73">
         <v>20</v>
       </c>
-      <c r="R13" s="69"/>
+      <c r="R13" s="73"/>
       <c r="S13" s="28"/>
       <c r="T13" s="29"/>
       <c r="U13" s="59">
@@ -2811,24 +2831,24 @@
       <c r="AK13" s="61"/>
     </row>
     <row r="14" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
       <c r="S14" s="60">
         <v>6</v>
       </c>
@@ -2866,24 +2886,24 @@
       <c r="AK14" s="61"/>
     </row>
     <row r="15" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
       <c r="S15" s="60">
         <f t="shared" ref="S15:S17" si="1">+X14+2</f>
         <v>13</v>
@@ -2923,24 +2943,24 @@
       <c r="AK15" s="61"/>
     </row>
     <row r="16" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
       <c r="S16" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2980,24 +3000,24 @@
       <c r="AK16" s="61"/>
     </row>
     <row r="17" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
       <c r="S17" s="50">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3025,44 +3045,44 @@
       <c r="AK17" s="61"/>
     </row>
     <row r="18" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78">
+      <c r="A18" s="82">
         <v>1025548</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="113">
         <v>10</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="70">
         <v>27</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="66" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69">
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73">
         <v>20</v>
       </c>
-      <c r="R18" s="69"/>
+      <c r="R18" s="73"/>
       <c r="S18" s="28"/>
       <c r="T18" s="29"/>
       <c r="U18" s="59">
@@ -3092,24 +3112,24 @@
       <c r="AK18" s="61"/>
     </row>
     <row r="19" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
       <c r="S19" s="31">
         <v>6</v>
       </c>
@@ -3147,24 +3167,24 @@
       <c r="AK19" s="61"/>
     </row>
     <row r="20" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
       <c r="S20" s="31">
         <f t="shared" ref="S20:S22" si="8">+X19+2</f>
         <v>13</v>
@@ -3204,24 +3224,24 @@
       <c r="AK20" s="61"/>
     </row>
     <row r="21" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
       <c r="S21" s="36">
         <f t="shared" si="8"/>
         <v>20</v>
@@ -3261,24 +3281,24 @@
       <c r="AK21" s="61"/>
     </row>
     <row r="22" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
       <c r="S22" s="38">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -3306,47 +3326,47 @@
       <c r="AK22" s="61"/>
     </row>
     <row r="23" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="78">
+      <c r="A23" s="82">
         <v>1196027</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="113">
         <v>5</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="70">
         <v>26</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72" t="s">
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="66" t="s">
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69">
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73">
         <v>20</v>
       </c>
-      <c r="R23" s="69"/>
+      <c r="R23" s="73"/>
       <c r="S23" s="28"/>
       <c r="T23" s="29"/>
-      <c r="U23" s="174">
+      <c r="U23" s="68">
         <v>1</v>
       </c>
       <c r="V23" s="29">
@@ -3373,24 +3393,24 @@
       <c r="AK23" s="62"/>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
       <c r="S24" s="31">
         <v>6</v>
       </c>
@@ -3428,24 +3448,24 @@
       <c r="AK24" s="62"/>
     </row>
     <row r="25" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="79"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
       <c r="S25" s="31">
         <f t="shared" ref="S25:S27" si="14">+X24+2</f>
         <v>13</v>
@@ -3485,24 +3505,24 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
       <c r="S26" s="36">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -3542,24 +3562,24 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" s="53" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
       <c r="S27" s="38">
         <f t="shared" si="14"/>
         <v>27</v>
@@ -3587,47 +3607,47 @@
       <c r="AK27" s="63"/>
     </row>
     <row r="28" spans="1:37" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78">
+      <c r="A28" s="82">
         <v>1134014</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="109">
+      <c r="D28" s="113">
         <v>5</v>
       </c>
-      <c r="E28" s="109" t="s">
+      <c r="E28" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="70">
         <v>27</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72" t="s">
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="66" t="s">
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69">
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73">
         <v>20</v>
       </c>
-      <c r="R28" s="69"/>
+      <c r="R28" s="73"/>
       <c r="S28" s="58"/>
       <c r="T28" s="29"/>
-      <c r="U28" s="174">
+      <c r="U28" s="68">
         <v>1</v>
       </c>
       <c r="V28" s="29">
@@ -3654,24 +3674,24 @@
       <c r="AK28" s="63"/>
     </row>
     <row r="29" spans="1:37" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
       <c r="S29" s="31">
         <v>6</v>
       </c>
@@ -3709,24 +3729,24 @@
       <c r="AK29" s="63"/>
     </row>
     <row r="30" spans="1:37" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
       <c r="S30" s="31">
         <f t="shared" ref="S30:S32" si="20">+X29+2</f>
         <v>13</v>
@@ -3766,24 +3786,24 @@
       <c r="AK30" s="63"/>
     </row>
     <row r="31" spans="1:37" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
       <c r="S31" s="36">
         <f t="shared" si="20"/>
         <v>20</v>
@@ -3823,24 +3843,24 @@
       <c r="AK31" s="63"/>
     </row>
     <row r="32" spans="1:37" s="53" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
       <c r="S32" s="38">
         <f t="shared" si="20"/>
         <v>27</v>
@@ -3868,44 +3888,44 @@
       <c r="AK32" s="63"/>
     </row>
     <row r="33" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="78">
+      <c r="A33" s="82">
         <v>1355480</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="109">
+      <c r="D33" s="113">
         <v>5</v>
       </c>
-      <c r="E33" s="109" t="s">
+      <c r="E33" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="70">
         <v>27</v>
       </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72" t="s">
+      <c r="H33" s="76"/>
+      <c r="I33" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="66" t="s">
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69">
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73">
         <v>15</v>
       </c>
-      <c r="R33" s="69"/>
+      <c r="R33" s="73"/>
       <c r="S33" s="28"/>
       <c r="T33" s="29"/>
       <c r="U33" s="59">
@@ -3935,24 +3955,24 @@
       <c r="AK33" s="1"/>
     </row>
     <row r="34" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="170"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="168"/>
-      <c r="M34" s="168"/>
-      <c r="N34" s="168"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="140"/>
+      <c r="R34" s="140"/>
       <c r="S34" s="31">
         <v>6</v>
       </c>
@@ -3963,7 +3983,7 @@
         <f t="shared" ref="U34:U36" si="22">+T34+1</f>
         <v>8</v>
       </c>
-      <c r="V34" s="52">
+      <c r="V34" s="57">
         <f t="shared" ref="V34:V36" si="23">+U34+1</f>
         <v>9</v>
       </c>
@@ -3990,24 +4010,24 @@
       <c r="AK34" s="1"/>
     </row>
     <row r="35" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="170"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="168"/>
-      <c r="M35" s="168"/>
-      <c r="N35" s="168"/>
-      <c r="O35" s="168"/>
-      <c r="P35" s="132"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="132"/>
+      <c r="A35" s="181"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="179"/>
+      <c r="N35" s="179"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="140"/>
+      <c r="R35" s="140"/>
       <c r="S35" s="31">
         <f t="shared" ref="S35:S37" si="26">+X34+2</f>
         <v>13</v>
@@ -4020,7 +4040,7 @@
         <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="V35" s="52">
+      <c r="V35" s="57">
         <f t="shared" si="23"/>
         <v>16</v>
       </c>
@@ -4047,25 +4067,25 @@
       <c r="AK35" s="1"/>
     </row>
     <row r="36" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="170"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="168"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="172">
+      <c r="A36" s="181"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="179"/>
+      <c r="M36" s="179"/>
+      <c r="N36" s="179"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="140"/>
+      <c r="Q36" s="140"/>
+      <c r="R36" s="140"/>
+      <c r="S36" s="66">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
@@ -4077,7 +4097,7 @@
         <f t="shared" si="22"/>
         <v>22</v>
       </c>
-      <c r="V36" s="49">
+      <c r="V36" s="37">
         <f t="shared" si="23"/>
         <v>23</v>
       </c>
@@ -4104,25 +4124,25 @@
       <c r="AK36" s="1"/>
     </row>
     <row r="37" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="171"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="169"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="133"/>
-      <c r="S37" s="173">
+      <c r="A37" s="182"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="141"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="141"/>
+      <c r="S37" s="67">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
@@ -4131,7 +4151,7 @@
         <v>28</v>
       </c>
       <c r="U37" s="40"/>
-      <c r="V37" s="175"/>
+      <c r="V37" s="40"/>
       <c r="W37" s="40"/>
       <c r="X37" s="34"/>
       <c r="Y37" s="1"/>
@@ -4149,44 +4169,44 @@
       <c r="AK37" s="1"/>
     </row>
     <row r="38" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="78">
+      <c r="A38" s="82">
         <v>1196026</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="109">
+      <c r="D38" s="113">
         <v>5</v>
       </c>
-      <c r="E38" s="109" t="s">
+      <c r="E38" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="70">
         <v>27</v>
       </c>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72" t="s">
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="66" t="s">
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69">
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73">
         <v>20</v>
       </c>
-      <c r="R38" s="69"/>
+      <c r="R38" s="73"/>
       <c r="S38" s="28"/>
       <c r="T38" s="29"/>
       <c r="U38" s="59">
@@ -4195,7 +4215,7 @@
       <c r="V38" s="29">
         <v>2</v>
       </c>
-      <c r="W38" s="174">
+      <c r="W38" s="68">
         <v>3</v>
       </c>
       <c r="X38" s="30">
@@ -4216,24 +4236,24 @@
       <c r="AK38" s="1"/>
     </row>
     <row r="39" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="170"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="179"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="140"/>
+      <c r="R39" s="140"/>
       <c r="S39" s="31">
         <v>6</v>
       </c>
@@ -4271,24 +4291,24 @@
       <c r="AK39" s="1"/>
     </row>
     <row r="40" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="170"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="168"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="132"/>
-      <c r="R40" s="132"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="179"/>
+      <c r="K40" s="179"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="179"/>
+      <c r="N40" s="179"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="140"/>
       <c r="S40" s="31">
         <f t="shared" ref="S40:S42" si="32">+X39+2</f>
         <v>13</v>
@@ -4328,24 +4348,24 @@
       <c r="AK40" s="1"/>
     </row>
     <row r="41" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="170"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="132"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="132"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="179"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="140"/>
+      <c r="Q41" s="140"/>
+      <c r="R41" s="140"/>
       <c r="S41" s="36">
         <f t="shared" si="32"/>
         <v>20</v>
@@ -4385,24 +4405,24 @@
       <c r="AK41" s="1"/>
     </row>
     <row r="42" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="171"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="169"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="169"/>
-      <c r="N42" s="169"/>
-      <c r="O42" s="169"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="133"/>
+      <c r="A42" s="182"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="180"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="141"/>
+      <c r="Q42" s="141"/>
+      <c r="R42" s="141"/>
       <c r="S42" s="38">
         <f t="shared" si="32"/>
         <v>27</v>
@@ -4430,44 +4450,44 @@
       <c r="AK42" s="1"/>
     </row>
     <row r="43" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="78">
+      <c r="A43" s="82">
         <v>1134010</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="109">
+      <c r="D43" s="113">
         <v>5</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E43" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="66" t="s">
+      <c r="F43" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="70">
         <v>26</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72" t="s">
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="66" t="s">
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69">
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73">
         <v>20</v>
       </c>
-      <c r="R43" s="69"/>
+      <c r="R43" s="73"/>
       <c r="S43" s="28"/>
       <c r="T43" s="29"/>
       <c r="U43" s="59">
@@ -4476,7 +4496,7 @@
       <c r="V43" s="29">
         <v>2</v>
       </c>
-      <c r="W43" s="174">
+      <c r="W43" s="68">
         <v>3</v>
       </c>
       <c r="X43" s="30">
@@ -4497,24 +4517,24 @@
       <c r="AK43" s="1"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="170"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="132"/>
+      <c r="A44" s="181"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="179"/>
+      <c r="N44" s="179"/>
+      <c r="O44" s="179"/>
+      <c r="P44" s="140"/>
+      <c r="Q44" s="140"/>
+      <c r="R44" s="140"/>
       <c r="S44" s="31">
         <v>6</v>
       </c>
@@ -4552,24 +4572,24 @@
       <c r="AK44" s="1"/>
     </row>
     <row r="45" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="170"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="168"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="168"/>
-      <c r="N45" s="168"/>
-      <c r="O45" s="168"/>
-      <c r="P45" s="132"/>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="132"/>
+      <c r="A45" s="181"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="179"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="179"/>
+      <c r="N45" s="179"/>
+      <c r="O45" s="179"/>
+      <c r="P45" s="140"/>
+      <c r="Q45" s="140"/>
+      <c r="R45" s="140"/>
       <c r="S45" s="56">
         <f t="shared" ref="S45:S47" si="38">+X44+2</f>
         <v>13</v>
@@ -4609,24 +4629,24 @@
       <c r="AK45" s="1"/>
     </row>
     <row r="46" spans="1:37" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="170"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="168"/>
-      <c r="O46" s="168"/>
-      <c r="P46" s="132"/>
-      <c r="Q46" s="132"/>
-      <c r="R46" s="132"/>
+      <c r="A46" s="181"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="179"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="179"/>
+      <c r="N46" s="179"/>
+      <c r="O46" s="179"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="140"/>
+      <c r="R46" s="140"/>
       <c r="S46" s="36">
         <f t="shared" si="38"/>
         <v>20</v>
@@ -4666,24 +4686,24 @@
       <c r="AK46" s="1"/>
     </row>
     <row r="47" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="171"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="169"/>
-      <c r="N47" s="169"/>
-      <c r="O47" s="169"/>
-      <c r="P47" s="133"/>
-      <c r="Q47" s="133"/>
-      <c r="R47" s="133"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="180"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="180"/>
+      <c r="J47" s="180"/>
+      <c r="K47" s="180"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="180"/>
+      <c r="N47" s="180"/>
+      <c r="O47" s="180"/>
+      <c r="P47" s="141"/>
+      <c r="Q47" s="141"/>
+      <c r="R47" s="141"/>
       <c r="S47" s="38">
         <f t="shared" si="38"/>
         <v>27</v>
@@ -4694,7 +4714,7 @@
       </c>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
-      <c r="W47" s="175"/>
+      <c r="W47" s="69"/>
       <c r="X47" s="34"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -4718,25 +4738,25 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="160"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="169"/>
+      <c r="K48" s="169"/>
+      <c r="L48" s="169"/>
+      <c r="M48" s="169"/>
+      <c r="N48" s="169"/>
+      <c r="O48" s="171"/>
       <c r="P48" s="35"/>
       <c r="Q48" s="41">
         <f>SUM(Q13:Q47)</f>
         <v>135</v>
       </c>
-      <c r="R48" s="157"/>
-      <c r="S48" s="158"/>
-      <c r="T48" s="158"/>
-      <c r="U48" s="158"/>
-      <c r="V48" s="158"/>
-      <c r="W48" s="158"/>
+      <c r="R48" s="168"/>
+      <c r="S48" s="169"/>
+      <c r="T48" s="169"/>
+      <c r="U48" s="169"/>
+      <c r="V48" s="169"/>
+      <c r="W48" s="169"/>
       <c r="X48" s="27"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -4753,31 +4773,31 @@
       <c r="AK48" s="1"/>
     </row>
     <row r="49" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="76"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="76"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -4794,48 +4814,48 @@
       <c r="AK49" s="1"/>
     </row>
     <row r="50" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="123" t="s">
+      <c r="A50" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="101" t="s">
+      <c r="B50" s="132"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="125"/>
-      <c r="G50" s="97" t="s">
+      <c r="F50" s="133"/>
+      <c r="G50" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="101" t="s">
+      <c r="H50" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
       <c r="N50" s="17"/>
-      <c r="O50" s="163" t="s">
+      <c r="O50" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="P50" s="161" t="s">
+      <c r="P50" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="Q50" s="161" t="s">
+      <c r="Q50" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="R50" s="97" t="s">
+      <c r="R50" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="101" t="s">
+      <c r="S50" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="T50" s="102"/>
-      <c r="U50" s="102"/>
-      <c r="V50" s="102"/>
-      <c r="W50" s="102"/>
-      <c r="X50" s="102"/>
+      <c r="T50" s="106"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="106"/>
+      <c r="W50" s="106"/>
+      <c r="X50" s="106"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
@@ -4851,13 +4871,13 @@
       <c r="AK50" s="1"/>
     </row>
     <row r="51" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="126"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="150"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="161"/>
       <c r="H51" s="45" t="s">
         <v>13</v>
       </c>
@@ -4879,10 +4899,10 @@
       <c r="N51" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="O51" s="150"/>
-      <c r="P51" s="166"/>
-      <c r="Q51" s="167"/>
-      <c r="R51" s="150"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="177"/>
+      <c r="Q51" s="178"/>
+      <c r="R51" s="161"/>
       <c r="S51" s="45" t="s">
         <v>13</v>
       </c>
@@ -4916,36 +4936,36 @@
       <c r="AK51" s="1"/>
     </row>
     <row r="52" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="116" t="s">
+      <c r="A52" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116" t="s">
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="117"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139" t="s">
+      <c r="F52" s="121"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="139"/>
-      <c r="N52" s="139"/>
-      <c r="O52" s="135" t="s">
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
+      <c r="O52" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="P52" s="151">
+      <c r="P52" s="162">
         <v>42773</v>
       </c>
-      <c r="Q52" s="151">
+      <c r="Q52" s="162">
         <v>42787</v>
       </c>
-      <c r="R52" s="69">
+      <c r="R52" s="73">
         <v>8</v>
       </c>
       <c r="S52" s="28"/>
@@ -4977,24 +4997,24 @@
       <c r="AK52" s="1"/>
     </row>
     <row r="53" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="136"/>
-      <c r="O53" s="136"/>
-      <c r="P53" s="132"/>
-      <c r="Q53" s="132"/>
-      <c r="R53" s="132"/>
+      <c r="A53" s="123"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="144"/>
+      <c r="N53" s="144"/>
+      <c r="O53" s="144"/>
+      <c r="P53" s="140"/>
+      <c r="Q53" s="140"/>
+      <c r="R53" s="140"/>
       <c r="S53" s="31">
         <v>6</v>
       </c>
@@ -5032,24 +5052,24 @@
       <c r="AK53" s="1"/>
     </row>
     <row r="54" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="119"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="136"/>
-      <c r="O54" s="136"/>
-      <c r="P54" s="132"/>
-      <c r="Q54" s="132"/>
-      <c r="R54" s="132"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="144"/>
+      <c r="N54" s="144"/>
+      <c r="O54" s="144"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="140"/>
+      <c r="R54" s="140"/>
       <c r="S54" s="31">
         <f t="shared" ref="S54:S56" si="44">+X53+2</f>
         <v>13</v>
@@ -5089,24 +5109,24 @@
       <c r="AK54" s="1"/>
     </row>
     <row r="55" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="119"/>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="136"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="132"/>
-      <c r="Q55" s="132"/>
-      <c r="R55" s="132"/>
+      <c r="A55" s="123"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
+      <c r="P55" s="140"/>
+      <c r="Q55" s="140"/>
+      <c r="R55" s="140"/>
       <c r="S55" s="36">
         <f t="shared" si="44"/>
         <v>20</v>
@@ -5146,24 +5166,24 @@
       <c r="AK55" s="1"/>
     </row>
     <row r="56" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="119"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="137"/>
-      <c r="L56" s="137"/>
-      <c r="M56" s="137"/>
-      <c r="N56" s="137"/>
-      <c r="O56" s="137"/>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="145"/>
+      <c r="M56" s="145"/>
+      <c r="N56" s="145"/>
+      <c r="O56" s="145"/>
+      <c r="P56" s="141"/>
+      <c r="Q56" s="141"/>
+      <c r="R56" s="141"/>
       <c r="S56" s="38">
         <f t="shared" si="44"/>
         <v>27</v>
@@ -5191,24 +5211,24 @@
       <c r="AK56" s="1"/>
     </row>
     <row r="57" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="116"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="139"/>
-      <c r="M57" s="139"/>
-      <c r="N57" s="139"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="138"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="69"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="147"/>
+      <c r="K57" s="151"/>
+      <c r="L57" s="147"/>
+      <c r="M57" s="147"/>
+      <c r="N57" s="147"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="142"/>
+      <c r="R57" s="73"/>
       <c r="S57" s="58"/>
       <c r="T57" s="29"/>
       <c r="U57" s="59">
@@ -5238,24 +5258,24 @@
       <c r="AK57" s="1"/>
     </row>
     <row r="58" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="119"/>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="136"/>
-      <c r="N58" s="136"/>
-      <c r="O58" s="136"/>
-      <c r="P58" s="136"/>
-      <c r="Q58" s="132"/>
-      <c r="R58" s="132"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="140"/>
+      <c r="R58" s="140"/>
       <c r="S58" s="56">
         <v>6</v>
       </c>
@@ -5293,24 +5313,24 @@
       <c r="AK58" s="1"/>
     </row>
     <row r="59" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="119"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="N59" s="136"/>
-      <c r="O59" s="136"/>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="132"/>
-      <c r="R59" s="132"/>
+      <c r="A59" s="123"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="149"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="140"/>
+      <c r="R59" s="140"/>
       <c r="S59" s="56">
         <f t="shared" ref="S59:S61" si="50">+X58+2</f>
         <v>13</v>
@@ -5350,24 +5370,24 @@
       <c r="AK59" s="1"/>
     </row>
     <row r="60" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="119"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="141"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="136"/>
-      <c r="N60" s="136"/>
-      <c r="O60" s="136"/>
-      <c r="P60" s="136"/>
-      <c r="Q60" s="132"/>
-      <c r="R60" s="132"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="140"/>
+      <c r="R60" s="140"/>
       <c r="S60" s="36">
         <f t="shared" si="50"/>
         <v>20</v>
@@ -5407,24 +5427,24 @@
       <c r="AK60" s="1"/>
     </row>
     <row r="61" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="179"/>
-      <c r="B61" s="180"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="181"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="182"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="142"/>
-      <c r="L61" s="137"/>
-      <c r="M61" s="137"/>
-      <c r="N61" s="137"/>
-      <c r="O61" s="137"/>
-      <c r="P61" s="137"/>
-      <c r="Q61" s="133"/>
-      <c r="R61" s="133"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="145"/>
+      <c r="M61" s="145"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="145"/>
+      <c r="P61" s="145"/>
+      <c r="Q61" s="141"/>
+      <c r="R61" s="141"/>
       <c r="S61" s="38">
         <f t="shared" si="50"/>
         <v>27</v>
@@ -5452,24 +5472,24 @@
       <c r="AK61" s="1"/>
     </row>
     <row r="62" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="113" t="s">
+      <c r="A62" s="116"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="115"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="118"/>
+      <c r="N62" s="118"/>
+      <c r="O62" s="118"/>
+      <c r="P62" s="119"/>
       <c r="Q62" s="44"/>
       <c r="R62" s="65">
         <f>SUM(R52:R61)</f>
@@ -27190,7 +27210,7 @@
     <mergeCell ref="L43:L47"/>
     <mergeCell ref="M43:M47"/>
     <mergeCell ref="J33:J37"/>
-    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="I33:I37"/>
     <mergeCell ref="M33:M37"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="D28:D32"/>
@@ -27205,6 +27225,7 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B32"/>
+    <mergeCell ref="K28:K32"/>
     <mergeCell ref="N43:N47"/>
     <mergeCell ref="O43:O47"/>
     <mergeCell ref="P43:P47"/>
@@ -27232,8 +27253,8 @@
     <mergeCell ref="F33:F37"/>
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="H33:H37"/>
-    <mergeCell ref="I33:I37"/>
     <mergeCell ref="L33:L37"/>
+    <mergeCell ref="K33:K37"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O52:O56"/>
     <mergeCell ref="N52:N56"/>
@@ -27258,7 +27279,6 @@
     <mergeCell ref="Q28:Q32"/>
     <mergeCell ref="R28:R32"/>
     <mergeCell ref="J28:J32"/>
-    <mergeCell ref="K28:K32"/>
     <mergeCell ref="L28:L32"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="N28:N32"/>
